--- a/MDT/RollenEnBeheerdersPassen/Sleutelbossen.xlsx
+++ b/MDT/RollenEnBeheerdersPassen/Sleutelbossen.xlsx
@@ -12,15 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="12084" windowHeight="6540"/>
   </bookViews>
   <sheets>
-    <sheet name="KlantIdent" sheetId="1" r:id="rId1"/>
-    <sheet name="KlantSleutel" sheetId="2" r:id="rId2"/>
+    <sheet name="KlantSleutel" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>KlantIdent</t>
   </si>
@@ -28,18 +27,12 @@
     <t>KlantSleutel</t>
   </si>
   <si>
-    <t>RdwIdent</t>
-  </si>
-  <si>
     <t>SleutelType</t>
   </si>
   <si>
     <t>SleutelWaarde</t>
   </si>
   <si>
-    <t>[KlantIdent]</t>
-  </si>
-  <si>
     <t>[KlantSleutel]</t>
   </si>
   <si>
@@ -47,9 +40,6 @@
   </si>
   <si>
     <t>mnemonic</t>
-  </si>
-  <si>
-    <t>rdwIdent</t>
   </si>
   <si>
     <t>waarde</t>
@@ -428,61 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1690</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>9999</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,16 +434,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -515,108 +454,108 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1690</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1690</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1690</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1690</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1690</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>9999</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>9999</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/MDT/RollenEnBeheerdersPassen/Sleutelbossen.xlsx
+++ b/MDT/RollenEnBeheerdersPassen/Sleutelbossen.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>KlantIdent</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>0000999999</t>
+  </si>
+  <si>
+    <t>[SleutelType]</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>naam</t>
+  </si>
+  <si>
+    <t>bedryf-nr</t>
   </si>
 </sst>
 </file>
@@ -418,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +480,7 @@
         <v>1690</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -556,6 +568,62 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
